--- a/indomaretv3/df_reviewed.xlsx
+++ b/indomaretv3/df_reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpram\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B9F573-F758-41DE-934A-86CF0960BF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E6D36B-7981-4018-93E1-25B40A4A13CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2274,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="J200" sqref="J200"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="J171" sqref="J171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8247,16 +8247,16 @@
         <v>104.740837</v>
       </c>
       <c r="F171" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G171" t="s">
         <v>354</v>
       </c>
       <c r="H171" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I171">
-        <v>16048</v>
+        <v>5295</v>
       </c>
       <c r="J171">
         <v>0</v>
